--- a/SYP/Daily Scrums.xlsx
+++ b/SYP/Daily Scrums.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Daily Scrums</t>
   </si>
@@ -56,7 +56,43 @@
     <t>Kleinegger und Lotteritsch arbeiten am Mockup weiter, Drabosenig macht das Login und Gilgenreiner kümmert sich um GitHub und anschließend auch Mockup</t>
   </si>
   <si>
-    <t>Wir setzen uns heute alle die Aufgabe, an Mockups weiterzuarbeiten und unsere Teilprojekte zusammenzuführen.</t>
+    <t>Wir setzen uns heute alle die Aufgabe, an Mockups weiterzuarbeiten und unsere Teilprojekte zusammenzuführen. Gilgenreiner arbeitet zusätzlich noch an einem Arbeitsprotokoll.</t>
+  </si>
+  <si>
+    <t>In der heutigen Stunde setzen wir die Aufgaben der letzten Stunde fort (Gilgenreiner: Arbeitsprotokoll &amp; Mockup; Lotteritsch, Kleinegger, Drabosenig: Mockup)</t>
+  </si>
+  <si>
+    <t>Vorbereitung auf Sprint Review (Einrichten von Screen Mirroring - Teamviewer)</t>
+  </si>
+  <si>
+    <t>Vorbereitung auf Sprint Review (Vorbereiten der Mockup App, Vorbereitung der Präsentation)</t>
+  </si>
+  <si>
+    <t>Kleinegger arbeitet am Chat weiter, Drabosenig kümmert sich um das Areitsprotokoll, Gilgenreiner arbeitet am Delete und Edit Profile - Lotteritsch ist Musterung</t>
+  </si>
+  <si>
+    <t>Dabosenig arbeitet am App Icon, Gilgenreiner arbeitet weiter am Profil bearbeiten. Kleinegger ist krank und Lotteritsch ist bei der Musterung</t>
+  </si>
+  <si>
+    <t>Lotteritsch arbeitet am Eröffnen eines Gruppenchats weiter, Drabosenig arbeitet am Arbeitsprotokoll, Gilgenreiner macht die Vorbereitung auf Sprint Review, Kleinegger arbeitet am Chat weiter</t>
+  </si>
+  <si>
+    <t>Gilgenreiner und Kleinegger arbeiten weiter an der Vorbereitung für Sprint Review, Drabosenig am Arbeitsprotokoll, Lotteritsch an Gruppenchats</t>
+  </si>
+  <si>
+    <t>Wir planen alle zusammen den nächsten Sprint, und kümmern uns danach um die User Stories</t>
+  </si>
+  <si>
+    <t>Drabosenig arbeitet am Login und Register, Kleinegger am "Nachrichten gesehen" (in Gruppen und Einzelchats), Gilgenreiner arbeitet noch am Bug beim Löschen und Lotteritsch stellt Requests fertig und arbeitet an Bildern</t>
+  </si>
+  <si>
+    <t>Drabosenig arbeitet am Arbeitsprotokoll, Kleinegger arbeitet am "nachricht gesehen" weiter, Gilgenreiner arbeitet an der Dokumentation und Lotteritsch arbeitet weiter mit Gruppenteilnehmern anzeigen und Bug fixes.</t>
+  </si>
+  <si>
+    <t>Gilgenreiner arbeitet an der Dokumenation weiter, Kleinegger hat die Story-Map gemacht, Lotteritsch und Drabosenig waren abwesend</t>
+  </si>
+  <si>
+    <t>Gilgenreiner arbeitet an der Dokumenation weiter, Drabosenig arbeitet am Arbeitsprotokoll, Kleinegger und Lotteritsch arbeiten am Programm weiter</t>
   </si>
 </sst>
 </file>
@@ -433,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="173" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43556</v>
       </c>
@@ -523,32 +559,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43557</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>43559</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A14" s="3">
+        <v>43563</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43584</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43585</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>43591</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>43594</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>43598</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>43605</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>43612</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>43619</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>43620</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A12 A14:A1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(WEEKDAY(A1, 3)=0, WEEKDAY(A1, 3)=1)</formula>
     </cfRule>

--- a/SYP/Daily Scrums.xlsx
+++ b/SYP/Daily Scrums.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andi/Documents/Schule/4. Klasse/SYP - MUH/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andi/AndroidStudioProjects/ChatAppGit/SYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Daily Scrums</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Gilgenreiner arbeitet an der Dokumenation weiter, Drabosenig arbeitet am Arbeitsprotokoll, Kleinegger und Lotteritsch arbeiten am Programm weiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir überarbeiten nach Absprache mit Frau Prof. unsere Projektdokumentation. </t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,6 +658,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>43633</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A12 A14:A1048576">
     <cfRule type="expression" dxfId="0" priority="1">
